--- a/PAPER/outputHeuristicsExcel.xlsx
+++ b/PAPER/outputHeuristicsExcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="l = 5000 MAIN" sheetId="1" state="visible" r:id="rId2"/>
@@ -585,7 +585,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1006,11 +1006,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="3906186"/>
-        <c:axId val="46759369"/>
+        <c:axId val="73291209"/>
+        <c:axId val="51474748"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="3906186"/>
+        <c:axId val="73291209"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,14 +1046,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46759369"/>
+        <c:crossAx val="51474748"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46759369"/>
+        <c:axId val="51474748"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,7 +1096,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3906186"/>
+        <c:crossAx val="73291209"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1134,7 +1134,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1555,11 +1555,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="95534590"/>
-        <c:axId val="58028692"/>
+        <c:axId val="80638932"/>
+        <c:axId val="81475197"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95534590"/>
+        <c:axId val="80638932"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,14 +1595,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58028692"/>
+        <c:crossAx val="81475197"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58028692"/>
+        <c:axId val="81475197"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1645,7 +1645,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95534590"/>
+        <c:crossAx val="80638932"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1683,7 +1683,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2104,11 +2104,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="91647012"/>
-        <c:axId val="945338"/>
+        <c:axId val="30812310"/>
+        <c:axId val="514969"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91647012"/>
+        <c:axId val="30812310"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2144,14 +2144,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="945338"/>
+        <c:crossAx val="514969"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="945338"/>
+        <c:axId val="514969"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2194,7 +2194,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91647012"/>
+        <c:crossAx val="30812310"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2232,7 +2232,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2653,11 +2653,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="34209670"/>
-        <c:axId val="33628688"/>
+        <c:axId val="66169169"/>
+        <c:axId val="1181486"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="34209670"/>
+        <c:axId val="66169169"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2693,14 +2693,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33628688"/>
+        <c:crossAx val="1181486"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33628688"/>
+        <c:axId val="1181486"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2743,7 +2743,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34209670"/>
+        <c:crossAx val="66169169"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2781,7 +2781,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3202,11 +3202,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="27305032"/>
-        <c:axId val="36481553"/>
+        <c:axId val="58783814"/>
+        <c:axId val="27591705"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="27305032"/>
+        <c:axId val="58783814"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3242,14 +3242,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36481553"/>
+        <c:crossAx val="27591705"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36481553"/>
+        <c:axId val="27591705"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3292,7 +3292,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27305032"/>
+        <c:crossAx val="58783814"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3330,7 +3330,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3751,11 +3751,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="81976034"/>
-        <c:axId val="83877244"/>
+        <c:axId val="82254750"/>
+        <c:axId val="83572709"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81976034"/>
+        <c:axId val="82254750"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3791,14 +3791,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83877244"/>
+        <c:crossAx val="83572709"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83877244"/>
+        <c:axId val="83572709"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3841,7 +3841,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81976034"/>
+        <c:crossAx val="82254750"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3879,7 +3879,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4300,11 +4300,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="92072544"/>
-        <c:axId val="54574204"/>
+        <c:axId val="622309"/>
+        <c:axId val="91251968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92072544"/>
+        <c:axId val="622309"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4340,14 +4340,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54574204"/>
+        <c:crossAx val="91251968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54574204"/>
+        <c:axId val="91251968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4390,7 +4390,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92072544"/>
+        <c:crossAx val="622309"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4428,7 +4428,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4849,11 +4849,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="11778646"/>
-        <c:axId val="97844183"/>
+        <c:axId val="32722756"/>
+        <c:axId val="56701247"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11778646"/>
+        <c:axId val="32722756"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4889,14 +4889,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97844183"/>
+        <c:crossAx val="56701247"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97844183"/>
+        <c:axId val="56701247"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4939,7 +4939,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11778646"/>
+        <c:crossAx val="32722756"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4977,7 +4977,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5398,11 +5398,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="83819410"/>
-        <c:axId val="36518269"/>
+        <c:axId val="81106186"/>
+        <c:axId val="83785142"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83819410"/>
+        <c:axId val="81106186"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5438,14 +5438,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36518269"/>
+        <c:crossAx val="83785142"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36518269"/>
+        <c:axId val="83785142"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5488,7 +5488,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83819410"/>
+        <c:crossAx val="81106186"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5537,9 +5537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>416520</xdr:colOff>
+      <xdr:colOff>416160</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5548,7 +5548,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="330120" y="127080"/>
-        <a:ext cx="8553960" cy="3896280"/>
+        <a:ext cx="8753760" cy="3895920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5567,9 +5567,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>429480</xdr:colOff>
+      <xdr:colOff>429120</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5578,7 +5578,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="317520" y="4203360"/>
-        <a:ext cx="8579520" cy="3731400"/>
+        <a:ext cx="8779320" cy="3731040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5597,9 +5597,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>479880</xdr:colOff>
+      <xdr:colOff>479520</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5608,7 +5608,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="291960" y="8115120"/>
-        <a:ext cx="8655480" cy="4467960"/>
+        <a:ext cx="8855280" cy="4467600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5632,9 +5632,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>289800</xdr:colOff>
+      <xdr:colOff>289440</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5643,7 +5643,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="304920" y="139680"/>
-        <a:ext cx="8719200" cy="3807360"/>
+        <a:ext cx="8985600" cy="3807000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5662,9 +5662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>302040</xdr:colOff>
+      <xdr:colOff>301680</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:rowOff>47880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5673,7 +5673,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="330120" y="4101840"/>
-        <a:ext cx="8706240" cy="4124880"/>
+        <a:ext cx="8972640" cy="4124520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5692,9 +5692,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>340560</xdr:colOff>
+      <xdr:colOff>340200</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>251280</xdr:rowOff>
+      <xdr:rowOff>250920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5703,7 +5703,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="317520" y="8457840"/>
-        <a:ext cx="8757360" cy="4061520"/>
+        <a:ext cx="9023760" cy="4061160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5727,9 +5727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>213480</xdr:colOff>
+      <xdr:colOff>213120</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>264240</xdr:rowOff>
+      <xdr:rowOff>263880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5738,7 +5738,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="127080" y="152280"/>
-        <a:ext cx="8887320" cy="4493160"/>
+        <a:ext cx="9153720" cy="4492800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5757,9 +5757,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>238680</xdr:colOff>
+      <xdr:colOff>238320</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>226080</xdr:rowOff>
+      <xdr:rowOff>225720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5768,7 +5768,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="152280" y="4775040"/>
-        <a:ext cx="8887320" cy="4213800"/>
+        <a:ext cx="9153720" cy="4213440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5787,9 +5787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>353160</xdr:colOff>
+      <xdr:colOff>352800</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>276840</xdr:rowOff>
+      <xdr:rowOff>276480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5798,7 +5798,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="177840" y="9105840"/>
-        <a:ext cx="8976240" cy="4607280"/>
+        <a:ext cx="9242640" cy="4606920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5819,15 +5819,15 @@
   </sheetPr>
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M27" activeCellId="0" sqref="M27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N28" activeCellId="0" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="1022" min="3" style="2" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1022" min="3" style="2" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="13.1674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6380,6 +6380,15 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="0"/>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
@@ -6393,6 +6402,15 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="0"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
@@ -6412,6 +6430,15 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="0"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -6853,6 +6880,15 @@
       <c r="K29" s="6" t="n">
         <v>9.56269</v>
       </c>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="T29" s="0"/>
+      <c r="U29" s="0"/>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
@@ -6866,6 +6902,15 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="0"/>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
@@ -6879,6 +6924,15 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
+      <c r="T31" s="0"/>
+      <c r="U31" s="0"/>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
@@ -6898,6 +6952,15 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="T32" s="0"/>
+      <c r="U32" s="0"/>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
@@ -7359,14 +7422,14 @@
   <dimension ref="K1:N40"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23"/>
   <cols>
-    <col collapsed="false" hidden="false" max="10" min="1" style="23" width="16.246511627907"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="23" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="23" width="16.246511627907"/>
+    <col collapsed="false" hidden="false" max="10" min="1" style="23" width="16.7348837209302"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="23" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="23" width="16.7348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7905,19 +7968,19 @@
   </sheetPr>
   <dimension ref="A1:AMG44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O31" activeCellId="0" sqref="O31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M35" activeCellId="0" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="12" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="10" min="3" style="13" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="13" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="1021" min="14" style="13" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="12" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="10" min="3" style="13" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="13" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1021" min="14" style="13" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="13.1674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7935,6 +7998,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
+      <c r="K1" s="0"/>
       <c r="M1" s="0"/>
       <c r="N1" s="0"/>
       <c r="O1" s="0"/>
@@ -8962,6 +9026,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
+      <c r="K2" s="0"/>
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
       <c r="O2" s="0"/>
@@ -9993,6 +10058,7 @@
       <c r="J3" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="K3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
       <c r="O3" s="0"/>
@@ -22436,6 +22502,7 @@
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
@@ -23457,6 +23524,7 @@
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
       <c r="O16" s="0"/>
@@ -24484,6 +24552,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
+      <c r="K17" s="0"/>
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
       <c r="O17" s="0"/>
@@ -25515,6 +25584,7 @@
       <c r="J18" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="K18" s="0"/>
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
       <c r="O18" s="0"/>
@@ -38032,6 +38102,9 @@
       <c r="J34" s="6" t="n">
         <v>0.230563</v>
       </c>
+      <c r="K34" s="2" t="n">
+        <v>699.237</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -38058,6 +38131,9 @@
       <c r="J35" s="9" t="n">
         <v>0.378162</v>
       </c>
+      <c r="K35" s="2" t="n">
+        <v>295.166</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
@@ -38084,6 +38160,9 @@
       <c r="J36" s="9" t="n">
         <v>0.475984</v>
       </c>
+      <c r="K36" s="2" t="n">
+        <v>161.457</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
@@ -38110,6 +38189,9 @@
       <c r="J37" s="6" t="n">
         <v>0.593915</v>
       </c>
+      <c r="K37" s="2" t="n">
+        <v>86.0086</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
@@ -38136,6 +38218,9 @@
       <c r="J38" s="6" t="n">
         <v>0.722513</v>
       </c>
+      <c r="K38" s="2" t="n">
+        <v>47.7196</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
@@ -38162,6 +38247,9 @@
       <c r="J39" s="6" t="n">
         <v>0.856799</v>
       </c>
+      <c r="K39" s="2" t="n">
+        <v>32.0161</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
@@ -38188,6 +38276,9 @@
       <c r="J40" s="6" t="n">
         <v>0.95286</v>
       </c>
+      <c r="K40" s="2" t="n">
+        <v>29.8047</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -38214,6 +38305,9 @@
       <c r="J41" s="10" t="n">
         <v>0.987669</v>
       </c>
+      <c r="K41" s="2" t="n">
+        <v>30.6556</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
@@ -38240,6 +38334,9 @@
       <c r="J42" s="10" t="n">
         <v>0.993392</v>
       </c>
+      <c r="K42" s="2" t="n">
+        <v>32.2587</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
@@ -38266,6 +38363,9 @@
       <c r="J43" s="10" t="n">
         <v>0.994038</v>
       </c>
+      <c r="K43" s="2" t="n">
+        <v>33.8318</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
@@ -38291,6 +38391,9 @@
       <c r="I44" s="6"/>
       <c r="J44" s="10" t="n">
         <v>0.994067</v>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>35.1539</v>
       </c>
     </row>
   </sheetData>
@@ -38312,13 +38415,15 @@
   </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M31" activeCellId="0" sqref="M31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N24" activeCellId="0" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="10" min="1" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="13.1674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38401,6 +38506,9 @@
       <c r="J4" s="6" t="n">
         <v>0.46466</v>
       </c>
+      <c r="K4" s="2" t="n">
+        <v>4.1616</v>
+      </c>
       <c r="M4" s="8" t="s">
         <v>11</v>
       </c>
@@ -38430,6 +38538,9 @@
       <c r="J5" s="6" t="n">
         <v>0.654527</v>
       </c>
+      <c r="K5" s="2" t="n">
+        <v>1.32843</v>
+      </c>
       <c r="M5" s="11" t="s">
         <v>12</v>
       </c>
@@ -38459,6 +38570,9 @@
       <c r="J6" s="6" t="n">
         <v>0.74212</v>
       </c>
+      <c r="K6" s="2" t="n">
+        <v>0.795104</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -38485,6 +38599,9 @@
       <c r="J7" s="10" t="n">
         <v>0.820929</v>
       </c>
+      <c r="K7" s="2" t="n">
+        <v>0.524245</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -38511,6 +38628,9 @@
       <c r="J8" s="10" t="n">
         <v>0.878158</v>
       </c>
+      <c r="K8" s="2" t="n">
+        <v>0.406434</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -38537,6 +38657,9 @@
       <c r="J9" s="10" t="n">
         <v>0.920727</v>
       </c>
+      <c r="K9" s="2" t="n">
+        <v>0.34659</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -38563,6 +38686,9 @@
       <c r="J10" s="10" t="n">
         <v>0.945036</v>
       </c>
+      <c r="K10" s="2" t="n">
+        <v>0.322665</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -38589,6 +38715,9 @@
       <c r="J11" s="10" t="n">
         <v>0.961036</v>
       </c>
+      <c r="K11" s="2" t="n">
+        <v>0.310089</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -38615,6 +38744,9 @@
       <c r="J12" s="10" t="n">
         <v>0.965271</v>
       </c>
+      <c r="K12" s="2" t="n">
+        <v>0.306582</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -38641,6 +38773,9 @@
       <c r="J13" s="10" t="n">
         <v>0.968928</v>
       </c>
+      <c r="K13" s="2" t="n">
+        <v>0.307411</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -38666,6 +38801,9 @@
       <c r="I14" s="6"/>
       <c r="J14" s="10" t="n">
         <v>0.967834</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>0.30947</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38740,6 +38878,9 @@
       <c r="J19" s="6" t="n">
         <v>0.461296</v>
       </c>
+      <c r="K19" s="2" t="n">
+        <v>106.736</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
@@ -38766,6 +38907,9 @@
       <c r="J20" s="9" t="n">
         <v>0.659638</v>
       </c>
+      <c r="K20" s="2" t="n">
+        <v>28.1368</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
@@ -38792,6 +38936,9 @@
       <c r="J21" s="6" t="n">
         <v>0.753592</v>
       </c>
+      <c r="K21" s="2" t="n">
+        <v>15.8283</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -38818,6 +38965,9 @@
       <c r="J22" s="10" t="n">
         <v>0.837042</v>
       </c>
+      <c r="K22" s="2" t="n">
+        <v>9.83116</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -38844,6 +38994,9 @@
       <c r="J23" s="10" t="n">
         <v>0.902393</v>
       </c>
+      <c r="K23" s="2" t="n">
+        <v>7.38398</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -38870,6 +39023,9 @@
       <c r="J24" s="10" t="n">
         <v>0.950434</v>
       </c>
+      <c r="K24" s="2" t="n">
+        <v>6.40269</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -38896,6 +39052,9 @@
       <c r="J25" s="10" t="n">
         <v>0.976682</v>
       </c>
+      <c r="K25" s="2" t="n">
+        <v>6.22688</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
@@ -38922,6 +39081,9 @@
       <c r="J26" s="10" t="n">
         <v>0.986087</v>
       </c>
+      <c r="K26" s="2" t="n">
+        <v>6.45004</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -38948,6 +39110,9 @@
       <c r="J27" s="10" t="n">
         <v>0.988403</v>
       </c>
+      <c r="K27" s="2" t="n">
+        <v>6.96688</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -38974,6 +39139,9 @@
       <c r="J28" s="10" t="n">
         <v>0.988545</v>
       </c>
+      <c r="K28" s="2" t="n">
+        <v>7.3745</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
@@ -38999,6 +39167,9 @@
       <c r="I29" s="6"/>
       <c r="J29" s="10" t="n">
         <v>0.988883</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>7.80006</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39073,6 +39244,9 @@
       <c r="J34" s="6" t="n">
         <v>0.460623</v>
       </c>
+      <c r="K34" s="2" t="n">
+        <v>423.806</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -39099,6 +39273,9 @@
       <c r="J35" s="9" t="n">
         <v>0.661144</v>
       </c>
+      <c r="K35" s="2" t="n">
+        <v>107.797</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
@@ -39125,6 +39302,9 @@
       <c r="J36" s="9" t="n">
         <v>0.758428</v>
       </c>
+      <c r="K36" s="2" t="n">
+        <v>58.2689</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
@@ -39151,6 +39331,9 @@
       <c r="J37" s="6" t="n">
         <v>0.845116</v>
       </c>
+      <c r="K37" s="2" t="n">
+        <v>35.6172</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
@@ -39177,6 +39360,9 @@
       <c r="J38" s="10" t="n">
         <v>0.910882</v>
       </c>
+      <c r="K38" s="2" t="n">
+        <v>26.5667</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
@@ -39203,6 +39389,9 @@
       <c r="J39" s="10" t="n">
         <v>0.961627</v>
       </c>
+      <c r="K39" s="2" t="n">
+        <v>23.0402</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
@@ -39229,6 +39418,9 @@
       <c r="J40" s="10" t="n">
         <v>0.985533</v>
       </c>
+      <c r="K40" s="2" t="n">
+        <v>22.8016</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -39255,6 +39447,9 @@
       <c r="J41" s="10" t="n">
         <v>0.990632</v>
       </c>
+      <c r="K41" s="2" t="n">
+        <v>23.4691</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
@@ -39281,6 +39476,9 @@
       <c r="J42" s="10" t="n">
         <v>0.991882</v>
       </c>
+      <c r="K42" s="2" t="n">
+        <v>24.276</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
@@ -39307,6 +39505,9 @@
       <c r="J43" s="10" t="n">
         <v>0.992259</v>
       </c>
+      <c r="K43" s="2" t="n">
+        <v>25.1806</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
@@ -39332,6 +39533,9 @@
       <c r="I44" s="6"/>
       <c r="J44" s="10" t="n">
         <v>0.992197</v>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>26.1422</v>
       </c>
     </row>
   </sheetData>
@@ -39358,9 +39562,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="9" min="2" style="23" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="23" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="9" min="2" style="23" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="23" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40762,9 +40966,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="12" min="2" style="23" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="23" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="12" min="2" style="23" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="23" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42095,9 +42299,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="12" min="2" style="23" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="23" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="26.3348837209302"/>
+    <col collapsed="false" hidden="false" max="12" min="2" style="23" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="23" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43305,9 +43509,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="12" min="2" style="23" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="23" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="29.4139534883721"/>
+    <col collapsed="false" hidden="false" max="12" min="2" style="23" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="23" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44515,9 +44719,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22"/>
   <cols>
-    <col collapsed="false" hidden="false" max="10" min="1" style="23" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="23" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="23" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="10" min="1" style="23" width="16"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="23" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="23" width="16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -45061,10 +45265,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="23" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="23" width="14.646511627907"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="23" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="23" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="9" min="1" style="23" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="23" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="23" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="23" width="16.6139534883721"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
